--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FFB7DC-B1EB-4ABC-B94B-62A5ADACB5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D781C-AD9D-4CCF-ACAB-F30E028C1689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
+    <sheet name="case 1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -381,9 +382,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -393,10 +412,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,16 +441,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,6 +625,170 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Zulfikar - 02/03/22</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED13A9C-6904-4484-85AC-53E280231788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8884920" y="685800"/>
+          <a:ext cx="3558540" cy="2758440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100"/>
+            <a:t>Catatan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t> :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>0. Simulasi ini berdasarkan pada perkiraan sub-blok mana yang perlu ditambahkan register untuk mengantisipasi efek critical path</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>1. Sub-blok yang ditambahkan register </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Greed action (PG)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- State Calc (SD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Max, Min, Mux (RD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Double reg write address BRAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Max, updater (QA)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zulfikar - 04/03/22</a:t>
           </a:r>
           <a:endParaRPr lang="en-ID">
             <a:effectLst/>
@@ -912,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963984B-3EDF-49EC-BCDA-BB884FED359E}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,10 +1115,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="10"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -960,37 +1151,37 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -998,42 +1189,42 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="str">
@@ -1044,8 +1235,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1053,15 +1244,15 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D11" t="str">
@@ -1072,14 +1263,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1087,7 +1278,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="str">
@@ -1098,38 +1289,38 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="str">
@@ -1140,14 +1331,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1155,7 +1346,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="str">
@@ -1166,25 +1357,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1192,7 +1383,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="str">
@@ -1204,25 +1395,25 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="str">
         <f>$C$6</f>
         <v>act0</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1230,18 +1421,18 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1249,45 +1440,45 @@
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D29" t="str">
@@ -1295,14 +1486,14 @@
         <v>act0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1310,10 +1501,10 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D31" t="s">
@@ -1321,10 +1512,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D32" t="s">
@@ -1332,10 +1523,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D33" t="s">
@@ -1343,7 +1534,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
@@ -1353,38 +1544,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
@@ -1394,14 +1585,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1409,10 +1600,10 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D39" t="s">
@@ -1420,10 +1611,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D40" t="str">
@@ -1431,14 +1622,14 @@
         <v>act0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1446,15 +1637,15 @@
       <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D43" t="s">
@@ -1462,10 +1653,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
@@ -1473,25 +1664,419 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="7" t="s">
         <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A28:L28"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128F7C61-DBDE-4795-B53E-7B3365EBC957}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +2088,6 @@
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A36:L36"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D781C-AD9D-4CCF-ACAB-F30E028C1689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41138989-9462-49D6-AE93-90577A9B31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="77">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>new Q 0</t>
+  </si>
+  <si>
+    <t>GSG</t>
+  </si>
+  <si>
+    <t>goal sig</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -423,6 +429,20 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,20 +458,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +660,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1115,10 +1123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="22"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1151,34 +1159,34 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1189,7 +1197,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1197,7 +1205,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1205,26 +1213,26 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="str">
@@ -1236,7 +1244,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1244,12 +1252,12 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1264,7 +1272,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1278,7 +1286,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="str">
@@ -1290,7 +1298,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1301,26 +1309,26 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="str">
@@ -1332,7 +1340,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1346,7 +1354,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="str">
@@ -1358,7 +1366,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1369,7 +1377,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1383,7 +1391,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="str">
@@ -1395,7 +1403,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="str">
@@ -1407,7 +1415,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1421,12 +1429,12 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1440,12 +1448,12 @@
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1456,26 +1464,26 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1487,7 +1495,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1501,7 +1509,7 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1512,7 +1520,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1523,7 +1531,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1534,7 +1542,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
@@ -1545,7 +1553,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1556,26 +1564,26 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
@@ -1586,7 +1594,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -1600,7 +1608,7 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1611,7 +1619,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1623,7 +1631,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1637,12 +1645,12 @@
       <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -1653,7 +1661,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1664,7 +1672,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1675,7 +1683,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1703,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128F7C61-DBDE-4795-B53E-7B3365EBC957}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,10 +1725,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="22"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1753,31 +1761,31 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1785,7 +1793,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1793,34 +1801,34 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1828,17 +1836,17 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1846,247 +1854,261 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
-        <v>27</v>
-      </c>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24" t="s">
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B44" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="25" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A38:L38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dismas\ITB\SemesterVIII\TA2\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41138989-9462-49D6-AE93-90577A9B31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704A0A6-6EBD-4B0D-92B7-E7DE51757DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
     <sheet name="case 1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -264,6 +264,87 @@
   </si>
   <si>
     <t>goal sig</t>
+  </si>
+  <si>
+    <t>debit_out0</t>
+  </si>
+  <si>
+    <t>panjang_reg0</t>
+  </si>
+  <si>
+    <t>panjang0</t>
+  </si>
+  <si>
+    <t>goal_sig0</t>
+  </si>
+  <si>
+    <t>state_max0</t>
+  </si>
+  <si>
+    <t>state_min0</t>
+  </si>
+  <si>
+    <t>chos_state0</t>
+  </si>
+  <si>
+    <t>state_min20</t>
+  </si>
+  <si>
+    <t>reward0</t>
+  </si>
+  <si>
+    <t>wen0</t>
+  </si>
+  <si>
+    <t>next_q0</t>
+  </si>
+  <si>
+    <t>chos_q0</t>
+  </si>
+  <si>
+    <t>max_nextq0</t>
+  </si>
+  <si>
+    <t>q0</t>
+  </si>
+  <si>
+    <t>new_q0</t>
+  </si>
+  <si>
+    <t>max_nextq1</t>
+  </si>
+  <si>
+    <t>next_q1</t>
+  </si>
+  <si>
+    <t>act_greed0</t>
+  </si>
+  <si>
+    <t>debit out1</t>
+  </si>
+  <si>
+    <t>panjang1</t>
+  </si>
+  <si>
+    <t>goal_sig1</t>
+  </si>
+  <si>
+    <t>reward1</t>
+  </si>
+  <si>
+    <t>wen1</t>
+  </si>
+  <si>
+    <t>state_max1</t>
+  </si>
+  <si>
+    <t>state_min1</t>
+  </si>
+  <si>
+    <t>chos_state1</t>
+  </si>
+  <si>
+    <t>state_min21</t>
   </si>
 </sst>
 </file>
@@ -314,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +468,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -418,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -440,6 +527,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -458,8 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,22 +1199,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963984B-3EDF-49EC-BCDA-BB884FED359E}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1158,23 +1246,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1212,23 +1300,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1243,12 +1331,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1359,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1308,23 +1396,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1339,7 +1427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +1521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
@@ -1463,23 +1551,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1582,7 @@
         <v>act0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
@@ -1505,7 +1593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1519,7 +1607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -1530,7 +1618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
@@ -1552,7 +1640,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>26</v>
       </c>
@@ -1563,23 +1651,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1593,7 +1681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
@@ -1604,7 +1692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
@@ -1630,7 +1718,7 @@
         <v>act0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>27</v>
       </c>
@@ -1660,7 +1748,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>29</v>
       </c>
@@ -1671,7 +1759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>32</v>
       </c>
@@ -1713,22 +1801,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128F7C61-DBDE-4795-B53E-7B3365EBC957}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1760,36 +1848,42 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1797,42 +1891,62 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="C6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1840,110 +1954,231 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1951,12 +2186,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1964,116 +2205,269 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="E29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D34" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="D37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D41" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -2081,24 +2475,51 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>32</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2110,6 +2531,7 @@
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A30:L30"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dismas\ITB\SemesterVIII\TA2\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704A0A6-6EBD-4B0D-92B7-E7DE51757DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B5767-335F-42F1-84D6-C6F64FC1789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="125">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -278,6 +278,9 @@
     <t>goal_sig0</t>
   </si>
   <si>
+    <t>inputs0</t>
+  </si>
+  <si>
     <t>state_max0</t>
   </si>
   <si>
@@ -311,18 +314,39 @@
     <t>new_q0</t>
   </si>
   <si>
+    <t>act2</t>
+  </si>
+  <si>
+    <t>state2</t>
+  </si>
+  <si>
     <t>max_nextq1</t>
   </si>
   <si>
+    <t>chos_q1</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
     <t>next_q1</t>
   </si>
   <si>
+    <t>next_q2</t>
+  </si>
+  <si>
+    <t>max_nextq2</t>
+  </si>
+  <si>
     <t>act_greed0</t>
   </si>
   <si>
     <t>debit out1</t>
   </si>
   <si>
+    <t>inputs1</t>
+  </si>
+  <si>
     <t>panjang1</t>
   </si>
   <si>
@@ -345,6 +369,45 @@
   </si>
   <si>
     <t>state_min21</t>
+  </si>
+  <si>
+    <t>goal_sig2</t>
+  </si>
+  <si>
+    <t>sel2</t>
+  </si>
+  <si>
+    <t>reward2</t>
+  </si>
+  <si>
+    <t>inputs2</t>
+  </si>
+  <si>
+    <t>new_q1</t>
+  </si>
+  <si>
+    <t>act_greed1</t>
+  </si>
+  <si>
+    <t>debit out2</t>
+  </si>
+  <si>
+    <t>panjang2</t>
+  </si>
+  <si>
+    <t>panjang_reg1</t>
+  </si>
+  <si>
+    <t>state_max2</t>
+  </si>
+  <si>
+    <t>state_min2</t>
+  </si>
+  <si>
+    <t>state_min22</t>
+  </si>
+  <si>
+    <t>wen2</t>
   </si>
 </sst>
 </file>
@@ -505,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -548,6 +611,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963984B-3EDF-49EC-BCDA-BB884FED359E}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1801,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128F7C61-DBDE-4795-B53E-7B3365EBC957}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,16 +1935,46 @@
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="C3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1898,11 +1992,23 @@
       <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1931,8 +2037,23 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" t="s">
         <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1942,8 +2063,23 @@
       <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1973,16 +2109,43 @@
       <c r="G11" t="s">
         <v>78</v>
       </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1992,22 +2155,58 @@
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" t="s">
         <v>79</v>
       </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2017,22 +2216,58 @@
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="21" t="s">
         <v>53</v>
       </c>
+      <c r="E15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
+      <c r="C16" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2064,11 +2299,23 @@
       <c r="E18" t="s">
         <v>53</v>
       </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" t="s">
         <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2076,10 +2323,22 @@
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2095,11 +2354,23 @@
       <c r="E20" t="s">
         <v>53</v>
       </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" t="s">
         <v>57</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2107,10 +2378,25 @@
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2118,10 +2404,25 @@
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2137,11 +2438,23 @@
       <c r="E23" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2166,24 +2479,69 @@
       <c r="H24" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="I24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="30" t="s">
         <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2193,8 +2551,23 @@
       <c r="E27" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="F27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H27" s="5" t="s">
         <v>65</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2204,16 +2577,52 @@
       <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2257,25 +2666,40 @@
       <c r="H31" t="s">
         <v>64</v>
       </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="C32" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2285,26 +2709,38 @@
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="C33" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="C34" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D34" s="29" t="s">
         <v>49</v>
       </c>
@@ -2318,6 +2754,12 @@
         <v>53</v>
       </c>
       <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2325,14 +2767,38 @@
       <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="C35" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="C36" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D36" t="s">
         <v>53</v>
       </c>
@@ -2347,23 +2813,41 @@
       </c>
       <c r="H36" t="s">
         <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="C37" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2389,34 +2873,58 @@
       <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="C39" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="C40" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2426,23 +2934,38 @@
       <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="C41" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D41" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="C42" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
@@ -2454,17 +2977,44 @@
       </c>
       <c r="G42" t="s">
         <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="C43" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,52 +3024,122 @@
       <c r="B44" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="C45" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="C46" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="C47" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="E47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>32</v>
       </c>
+      <c r="C48" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="F48" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dismas\ITB\SemesterVIII\TA2\intelight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B5767-335F-42F1-84D6-C6F64FC1789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D41FC-5E24-49F0-B7B7-73E0A87C69F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
     <sheet name="case 1" sheetId="4" r:id="rId2"/>
+    <sheet name="case 1_comment" sheetId="5" r:id="rId3"/>
+    <sheet name="case 1_rev1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="133">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -408,13 +410,37 @@
   </si>
   <si>
     <t>wen2</t>
+  </si>
+  <si>
+    <t>Action RAM</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>max_q0</t>
+  </si>
+  <si>
+    <t>max_q1</t>
+  </si>
+  <si>
+    <t>max_q2</t>
+  </si>
+  <si>
+    <t>butuh 3 register!</t>
+  </si>
+  <si>
+    <t>curr_q</t>
+  </si>
+  <si>
+    <t>butuh 2 register!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +479,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -592,6 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,8 +646,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,16 +851,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -828,8 +875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8884920" y="685800"/>
-          <a:ext cx="3558540" cy="2758440"/>
+          <a:off x="10386060" y="434340"/>
+          <a:ext cx="3558540" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,6 +962,599 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zulfikar - 04/03/22</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304D3408-04FB-4304-8DD8-0A24E2D73A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386060" y="434340"/>
+          <a:ext cx="3558540" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100"/>
+            <a:t>Catatan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t> :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>0. Simulasi ini berdasarkan pada perkiraan sub-blok mana yang perlu ditambahkan register untuk mengantisipasi efek critical path</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>1. Sub-blok yang ditambahkan register </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Greed action (PG)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- State Calc (SD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Max, Min, Mux (RD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Double reg write address BRAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Max, updater (QA)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zulfikar - 04/03/22</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63694DF-237C-4D98-B28A-9DB2F53D4F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206240" y="6858000"/>
+          <a:ext cx="1005840" cy="2011680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F59A38-65DC-4162-93E3-9006528B75E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="6164580"/>
+          <a:ext cx="967740" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A5F4B4-7179-4F2B-9F9D-E2479A4CF1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386060" y="434340"/>
+          <a:ext cx="3558540" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100"/>
+            <a:t>Catatan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t> :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>0. Simulasi ini berdasarkan pada perkiraan sub-blok mana yang perlu ditambahkan register untuk mengantisipasi efek critical path</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>1. Sub-blok yang ditambahkan register </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Greed action (PG)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- State Calc (SD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Max, Min, Mux (RD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Double reg write address BRAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>- Max, updater (QA)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zulfikar - 04/03/22</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CAE933-5DDA-49FE-A39C-A62679475090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10980420" y="4366260"/>
+          <a:ext cx="3558540" cy="2758440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100"/>
+            <a:t>Catatan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t> :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" baseline="0"/>
+            <a:t>. Timing ini berasumsi sistem bersifat ideal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>1. Sub-sistem paling rawan : RD, karena blok MIN ada 6 tingkat pemrosesan sekuensial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>2. BRAM rawan ketika di awal pengoperasian karena nilai enable tidak tersedia (bisa 0 atau 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>3. Perlu diperhartikan blok SD memerlukan komputasi terbesar dibandingkan blok lainnya</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>Rencana berikutnya :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>1. Simulasi timing bertahap dimulai dari BRAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" baseline="0"/>
+            <a:t>2. Menyesuaikan timing diagram dengan simulasi timing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-ID" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -948,7 +1588,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Zulfikar - 04/03/22</a:t>
+            <a:t>Zulfikar - 02/03/22</a:t>
           </a:r>
           <a:endParaRPr lang="en-ID">
             <a:effectLst/>
@@ -1263,22 +1903,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963984B-3EDF-49EC-BCDA-BB884FED359E}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1310,23 +1950,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1364,23 +2004,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1395,12 +2035,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +2048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +2063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +2074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1449,7 +2089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1460,23 +2100,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +2131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +2142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +2157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
@@ -1528,7 +2168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +2179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +2194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +2206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
@@ -1577,7 +2217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +2225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
@@ -1596,7 +2236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +2244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
@@ -1615,23 +2255,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +2286,7 @@
         <v>act0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
@@ -1657,7 +2297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1671,7 +2311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +2322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>32</v>
       </c>
@@ -1693,7 +2333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +2344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>26</v>
       </c>
@@ -1715,23 +2355,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +2385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +2396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +2410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +2422,7 @@
         <v>act0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>29</v>
       </c>
@@ -1793,7 +2433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1801,7 +2441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="19" t="s">
         <v>27</v>
       </c>
@@ -1812,7 +2452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" s="19" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +2463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>24</v>
       </c>
@@ -1834,7 +2474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
         <v>32</v>
       </c>
@@ -1865,22 +2505,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128F7C61-DBDE-4795-B53E-7B3365EBC957}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="12" width="12.42578125" customWidth="1"/>
+    <col min="3" max="12" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1912,33 +2552,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E3" t="s">
@@ -1954,14 +2594,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1977,7 +2617,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +2625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,23 +2651,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2722,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2090,14 +2730,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="s">
@@ -2119,11 +2759,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2148,14 +2788,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
@@ -2180,11 +2820,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2209,14 +2849,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -2241,11 +2881,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2270,23 +2910,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2981,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +3013,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +3039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +3065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2457,7 +3097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +3129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
@@ -2515,11 +3155,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -2544,7 +3184,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +3210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2599,7 +3239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
@@ -2625,30 +3265,30 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D31" t="s">
@@ -2673,11 +3313,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -2702,14 +3342,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D33" t="s">
@@ -2734,14 +3374,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E34" t="s">
@@ -2763,17 +3403,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="29" t="s">
+      <c r="C35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
@@ -2792,11 +3432,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
@@ -2821,11 +3461,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -2850,30 +3490,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D39" t="s">
@@ -2898,11 +3538,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -2927,17 +3567,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="29" t="s">
+      <c r="C41" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E41" t="s">
@@ -2959,11 +3599,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D42" t="s">
@@ -2988,14 +3628,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -3017,7 +3657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -3026,11 +3666,11 @@
       </c>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
@@ -3055,14 +3695,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E46" t="s">
@@ -3084,14 +3724,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="29" t="s">
+      <c r="C47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E47" t="s">
@@ -3113,17 +3753,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="29" t="s">
+      <c r="C48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -3156,4 +3796,2702 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4952FA66-4FEC-48C8-A5D7-7D2B44F7700D}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="12" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A38:L38"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D1B1C1-E9AD-4CFD-8345-9B9C63324CB1}">
+  <dimension ref="A1:M49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="12" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="str">
+        <f>D41</f>
+        <v>max_q0</v>
+      </c>
+      <c r="E46" t="str">
+        <f>E41</f>
+        <v>max_q0</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ref="F46:J46" si="0">F41</f>
+        <v>max_q0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>max_q1</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>max_q1</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>max_q1</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>max_q2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="str">
+        <f>G44</f>
+        <v>chos_q0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" ref="H47:M47" si="1">H44</f>
+        <v>chos_q0</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>chos_q0</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>chos_q1</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>chos_q1</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>chos_q1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D36:F36"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D41FC-5E24-49F0-B7B7-73E0A87C69F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB23147-8D2B-4A33-AD63-049B95B9CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="136">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>butuh 2 register!</t>
+  </si>
+  <si>
+    <t>butuh 1 register!</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>butuh 1 register</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -628,6 +637,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -646,19 +662,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1915,10 +1924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="33"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1951,20 +1960,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2005,20 +2014,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2101,20 +2110,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2256,20 +2265,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2356,20 +2365,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2517,10 +2526,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="33"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -2553,20 +2562,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2652,20 +2661,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2911,20 +2920,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3266,20 +3275,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3491,20 +3500,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -3814,10 +3823,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="33"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -3850,20 +3859,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3926,7 +3935,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3949,20 +3958,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3974,7 +3983,7 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
@@ -4000,7 +4009,7 @@
       <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -4026,7 +4035,7 @@
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
@@ -4035,7 +4044,7 @@
       <c r="C11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="s">
@@ -4064,7 +4073,7 @@
       <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -4096,7 +4105,7 @@
       <c r="C13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E13" t="s">
@@ -4125,7 +4134,7 @@
       <c r="C14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4157,7 +4166,7 @@
       <c r="C15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="28" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -4186,7 +4195,7 @@
       <c r="C16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -4209,20 +4218,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4234,7 +4243,7 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
@@ -4260,7 +4269,7 @@
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="30" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -4289,7 +4298,7 @@
       <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
@@ -4315,7 +4324,7 @@
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -4341,7 +4350,7 @@
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -4373,7 +4382,7 @@
       <c r="D23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="31" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -4405,7 +4414,7 @@
       <c r="D24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="31" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="21" t="s">
@@ -4431,7 +4440,7 @@
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -4460,7 +4469,7 @@
       <c r="B26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -4486,7 +4495,7 @@
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -4515,7 +4524,7 @@
       <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -4541,7 +4550,7 @@
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -4564,20 +4573,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4789,20 +4798,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -5082,12 +5091,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A38:L38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A38:L38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5100,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D1B1C1-E9AD-4CFD-8345-9B9C63324CB1}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5112,10 +5121,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="33"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -5148,20 +5157,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5176,16 +5185,22 @@
       <c r="D3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
+      <c r="E3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>91</v>
       </c>
       <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5199,16 +5214,22 @@
       <c r="D4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>101</v>
+      <c r="E4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5224,7 +5245,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="41" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5233,9 +5254,6 @@
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G6" s="2" t="s">
         <v>64</v>
       </c>
@@ -5243,24 +5261,27 @@
         <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5272,15 +5293,12 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
       <c r="G8" t="s">
         <v>64</v>
       </c>
@@ -5288,6 +5306,9 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5298,15 +5319,12 @@
       <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="G9" s="4" t="s">
         <v>102</v>
       </c>
@@ -5314,6 +5332,9 @@
         <v>102</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5324,64 +5345,64 @@
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>120</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -5394,7 +5415,7 @@
       <c r="C13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E13" t="s">
@@ -5423,7 +5444,7 @@
       <c r="C14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -5455,7 +5476,7 @@
       <c r="C15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="28" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -5484,7 +5505,7 @@
       <c r="C16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -5507,20 +5528,20 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5529,10 +5550,13 @@
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="C18" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
@@ -5558,7 +5582,13 @@
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="C19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -5584,10 +5614,13 @@
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="C20" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
@@ -5613,7 +5646,13 @@
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="C21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -5639,7 +5678,11 @@
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="C22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -5668,10 +5711,13 @@
       <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="C23" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="31" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -5697,31 +5743,37 @@
       <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="G24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="H24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="I24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="M24" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5729,7 +5781,13 @@
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="C25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -5758,33 +5816,25 @@
       <c r="B26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="C26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="C27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -5813,33 +5863,31 @@
       <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="C28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="C29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -5862,20 +5910,20 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5916,11 +5964,11 @@
       <c r="C32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="6" t="s">
         <v>87</v>
       </c>
@@ -6049,11 +6097,11 @@
       <c r="C36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
@@ -6141,20 +6189,20 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -6262,11 +6310,11 @@
       <c r="C43" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" t="s">
         <v>50</v>
       </c>
@@ -6443,6 +6491,9 @@
       <c r="K48" t="s">
         <v>106</v>
       </c>
+      <c r="L48" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="49" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
@@ -6477,7 +6528,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="A1:B1"/>
@@ -6488,6 +6539,7 @@
     <mergeCell ref="A39:L39"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB23147-8D2B-4A33-AD63-049B95B9CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFA688-D9DD-4DB1-87DC-5A8E5D1E2CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
     <sheet name="case 1" sheetId="4" r:id="rId2"/>
     <sheet name="case 1_comment" sheetId="5" r:id="rId3"/>
     <sheet name="case 1_rev1" sheetId="6" r:id="rId4"/>
+    <sheet name="case 2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="224">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -443,6 +444,270 @@
   </si>
   <si>
     <t>butuh 1 register</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>WRITE ON</t>
+  </si>
+  <si>
+    <t>READ ON</t>
+  </si>
+  <si>
+    <t>BRAM</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>Q(s0,A)</t>
+  </si>
+  <si>
+    <t>maxQ(s0,A)</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>Q(s0,a0)</t>
+  </si>
+  <si>
+    <t>maxQ'</t>
+  </si>
+  <si>
+    <t>chosQ</t>
+  </si>
+  <si>
+    <t>rwd</t>
+  </si>
+  <si>
+    <t>newQ</t>
+  </si>
+  <si>
+    <t>RD_addr</t>
+  </si>
+  <si>
+    <t>D_out</t>
+  </si>
+  <si>
+    <t>max_in</t>
+  </si>
+  <si>
+    <t>max_out</t>
+  </si>
+  <si>
+    <t>mux_in</t>
+  </si>
+  <si>
+    <t>mux_out</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Q(s1,A)</t>
+  </si>
+  <si>
+    <t>maxQ(s1,A)</t>
+  </si>
+  <si>
+    <t>newQ(s0,a0)</t>
+  </si>
+  <si>
+    <t>WR_addr</t>
+  </si>
+  <si>
+    <t>deb_out</t>
+  </si>
+  <si>
+    <t>pjg_reg</t>
+  </si>
+  <si>
+    <t>pjg</t>
+  </si>
+  <si>
+    <t>pjg0</t>
+  </si>
+  <si>
+    <t>pjg1</t>
+  </si>
+  <si>
+    <t>deb1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>min0_out</t>
+  </si>
+  <si>
+    <t>min1_out</t>
+  </si>
+  <si>
+    <t>max_a(s0)</t>
+  </si>
+  <si>
+    <t>min0_a(s0)</t>
+  </si>
+  <si>
+    <t>min1_a(s0)</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>rwd_sel0</t>
+  </si>
+  <si>
+    <t>chos_a0</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>act_greed</t>
+  </si>
+  <si>
+    <t>greed0</t>
+  </si>
+  <si>
+    <t>Accelerator</t>
+  </si>
+  <si>
+    <t>State Decider</t>
+  </si>
+  <si>
+    <t>Reward Decider</t>
+  </si>
+  <si>
+    <t>Policy Generator</t>
+  </si>
+  <si>
+    <t>1 register</t>
+  </si>
+  <si>
+    <t>max_a(s1)</t>
+  </si>
+  <si>
+    <t>min0_a(s1)</t>
+  </si>
+  <si>
+    <t>min1_a(s1)</t>
+  </si>
+  <si>
+    <t>chos_a1</t>
+  </si>
+  <si>
+    <t>rwd_sel1</t>
+  </si>
+  <si>
+    <t>deb2</t>
+  </si>
+  <si>
+    <t>pjg2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>Q(s2,A)</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>maxQ(s2,A)</t>
+  </si>
+  <si>
+    <t>Q(s1,a1)</t>
+  </si>
+  <si>
+    <t>newQ(s1,a1)</t>
+  </si>
+  <si>
+    <t>greed1</t>
+  </si>
+  <si>
+    <t>greed2</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>chos_a2</t>
+  </si>
+  <si>
+    <t>max_a(s2)</t>
+  </si>
+  <si>
+    <t>min0_a(s2)</t>
+  </si>
+  <si>
+    <t>min1_a(s2)</t>
+  </si>
+  <si>
+    <t>rwd_sel2</t>
+  </si>
+  <si>
+    <t>rwd2</t>
+  </si>
+  <si>
+    <t>Q(s2,a2)</t>
+  </si>
+  <si>
+    <t>newQ(s2,a2)</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>maxQ(s3,A)</t>
+  </si>
+  <si>
+    <t>Q(s3,A)</t>
+  </si>
+  <si>
+    <t>Q(s3,a3)</t>
+  </si>
+  <si>
+    <t>rwd3</t>
+  </si>
+  <si>
+    <t>newQ(s3,a3)</t>
+  </si>
+  <si>
+    <t>deb3</t>
+  </si>
+  <si>
+    <t>pjg3</t>
+  </si>
+  <si>
+    <t>max_a(s3)</t>
+  </si>
+  <si>
+    <t>min0_a(s3)</t>
+  </si>
+  <si>
+    <t>min1_a(s3)</t>
+  </si>
+  <si>
+    <t>chos_a3</t>
+  </si>
+  <si>
+    <t>rwd_sel3</t>
+  </si>
+  <si>
+    <t>greed3</t>
   </si>
 </sst>
 </file>
@@ -501,7 +766,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +845,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -611,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -644,6 +933,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -665,15 +959,61 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FF9999FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1912,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963984B-3EDF-49EC-BCDA-BB884FED359E}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1924,10 +2264,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -1960,20 +2300,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2014,20 +2354,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2110,20 +2450,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2265,20 +2605,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2365,20 +2705,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2514,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128F7C61-DBDE-4795-B53E-7B3365EBC957}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,10 +2866,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -2562,20 +2902,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2661,20 +3001,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2920,20 +3260,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3275,20 +3615,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3500,20 +3840,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -3823,10 +4163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -3859,20 +4199,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3958,20 +4298,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4218,20 +4558,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4573,20 +4913,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4798,20 +5138,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -5107,10 +5447,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D1B1C1-E9AD-4CFD-8345-9B9C63324CB1}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5121,10 +5461,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -5157,20 +5497,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5188,19 +5530,16 @@
       <c r="E3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="55" t="s">
         <v>91</v>
       </c>
+      <c r="H3" s="55" t="s">
+        <v>91</v>
+      </c>
       <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5217,19 +5556,16 @@
       <c r="E4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="55" t="s">
         <v>101</v>
       </c>
+      <c r="H4" s="55" t="s">
+        <v>101</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5245,7 +5581,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="53" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5254,34 +5590,36 @@
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="55" t="s">
         <v>64</v>
       </c>
+      <c r="H6" s="55" t="s">
+        <v>64</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5290,25 +5628,25 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="55" t="s">
         <v>64</v>
       </c>
+      <c r="H8" s="55" t="s">
+        <v>64</v>
+      </c>
       <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5316,25 +5654,25 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="55" t="s">
         <v>102</v>
       </c>
+      <c r="H9" s="55" t="s">
+        <v>102</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5345,34 +5683,36 @@
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="55" t="s">
         <v>104</v>
       </c>
+      <c r="H11" s="55" t="s">
+        <v>104</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5380,28 +5720,25 @@
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="55" t="s">
         <v>120</v>
       </c>
+      <c r="H12" s="55" t="s">
+        <v>120</v>
+      </c>
       <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5412,28 +5749,25 @@
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="55" t="s">
         <v>104</v>
       </c>
+      <c r="H13" s="55" t="s">
+        <v>104</v>
+      </c>
       <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5441,28 +5775,25 @@
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="55" t="s">
         <v>57</v>
       </c>
+      <c r="H14" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5473,28 +5804,25 @@
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="55" t="s">
         <v>57</v>
       </c>
+      <c r="H15" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="I15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5502,270 +5830,254 @@
       <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="55" t="s">
         <v>105</v>
       </c>
+      <c r="H16" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="55" t="s">
         <v>57</v>
       </c>
+      <c r="H18" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
         <v>94</v>
       </c>
-      <c r="K18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="I19" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="55" t="s">
         <v>57</v>
       </c>
+      <c r="H20" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
         <v>94</v>
       </c>
-      <c r="K20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="38" t="s">
+      <c r="C21" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="55" t="s">
         <v>109</v>
       </c>
+      <c r="I21" s="55" t="s">
+        <v>109</v>
+      </c>
       <c r="J21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="30" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="55" t="s">
         <v>111</v>
       </c>
+      <c r="I22" s="55" t="s">
+        <v>111</v>
+      </c>
       <c r="J22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="55" t="s">
         <v>57</v>
       </c>
+      <c r="H23" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="I23" s="9" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="F24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="H24" s="56" t="s">
         <v>64</v>
       </c>
+      <c r="I24" s="55" t="s">
+        <v>64</v>
+      </c>
       <c r="J24" s="9" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>93</v>
@@ -5773,43 +6085,37 @@
       <c r="L24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="H25" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="55" t="s">
         <v>110</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -5819,44 +6125,43 @@
       <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="54"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="G27" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="55" t="s">
         <v>65</v>
       </c>
+      <c r="I27" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="J27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -5866,83 +6171,81 @@
       <c r="C28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="H29" s="55" t="s">
         <v>106</v>
       </c>
+      <c r="I29" s="55" t="s">
+        <v>106</v>
+      </c>
       <c r="J29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="48"/>
+      <c r="C30" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
         <v>64</v>
@@ -5951,32 +6254,29 @@
         <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="38" t="s">
+      <c r="C32" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="6" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="H32" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I32" s="6" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>107</v>
@@ -5985,30 +6285,27 @@
         <v>107</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M32" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>125</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
         <v>57</v>
@@ -6017,27 +6314,24 @@
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F34" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>97</v>
@@ -6046,13 +6340,10 @@
         <v>97</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
@@ -6065,17 +6356,17 @@
       <c r="E35" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="H35" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="J35" t="s">
         <v>107</v>
@@ -6084,32 +6375,29 @@
         <v>107</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="H36" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
         <v>57</v>
@@ -6117,11 +6405,8 @@
       <c r="K36" t="s">
         <v>57</v>
       </c>
-      <c r="L36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>131</v>
       </c>
@@ -6134,17 +6419,17 @@
       <c r="E37" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H37" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J37" t="s">
         <v>97</v>
@@ -6152,11 +6437,8 @@
       <c r="K37" t="s">
         <v>97</v>
       </c>
-      <c r="L37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>32</v>
       </c>
@@ -6169,59 +6451,58 @@
       <c r="E38" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="H38" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
         <v>116</v>
       </c>
-      <c r="K38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="47"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="E40" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -6230,27 +6511,24 @@
         <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E41" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F41" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>128</v>
@@ -6259,13 +6537,10 @@
         <v>128</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -6281,8 +6556,8 @@
       <c r="E42" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>49</v>
+      <c r="F42" t="s">
+        <v>91</v>
       </c>
       <c r="G42" t="s">
         <v>91</v>
@@ -6291,7 +6566,7 @@
         <v>91</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
         <v>97</v>
@@ -6299,22 +6574,19 @@
       <c r="K42" t="s">
         <v>97</v>
       </c>
-      <c r="L42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="38" t="s">
+      <c r="C43" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
       <c r="G43" t="s">
         <v>50</v>
       </c>
@@ -6322,7 +6594,7 @@
         <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J43" t="s">
         <v>64</v>
@@ -6331,13 +6603,10 @@
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>64</v>
-      </c>
-      <c r="M43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>29</v>
       </c>
@@ -6350,8 +6619,8 @@
       <c r="E44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>49</v>
+      <c r="F44" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>89</v>
@@ -6360,7 +6629,7 @@
         <v>89</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>96</v>
@@ -6368,37 +6637,34 @@
       <c r="K44" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="str">
+      <c r="C46" s="2" t="str">
+        <f>C41</f>
+        <v>max_q0</v>
+      </c>
+      <c r="D46" s="2" t="str">
         <f>D41</f>
         <v>max_q0</v>
       </c>
-      <c r="E46" t="str">
-        <f>E41</f>
+      <c r="E46" s="2" t="str">
+        <f t="shared" ref="E46:I46" si="0">E41</f>
         <v>max_q0</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" ref="F46:J46" si="0">F41</f>
-        <v>max_q0</v>
+        <f t="shared" si="0"/>
+        <v>max_q1</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -6410,14 +6676,10 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>max_q1</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
         <v>max_q2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
         <v>29</v>
       </c>
@@ -6430,20 +6692,21 @@
       <c r="E47" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>49</v>
+      <c r="F47" t="str">
+        <f>F44</f>
+        <v>chos_q0</v>
       </c>
       <c r="G47" t="str">
-        <f>G44</f>
+        <f t="shared" ref="G47:L47" si="1">G44</f>
         <v>chos_q0</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ref="H47:M47" si="1">H44</f>
+        <f t="shared" si="1"/>
         <v>chos_q0</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
-        <v>chos_q0</v>
+        <v>chos_q1</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
@@ -6453,29 +6716,25 @@
         <f t="shared" si="1"/>
         <v>chos_q1</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="1"/>
-        <v>chos_q1</v>
-      </c>
-      <c r="M47">
+      <c r="L47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="38" t="s">
+      <c r="D48" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="38"/>
+      <c r="E48" s="41"/>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
       <c r="G48" t="s">
         <v>86</v>
       </c>
@@ -6483,7 +6742,7 @@
         <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="J48" t="s">
         <v>106</v>
@@ -6491,11 +6750,8 @@
       <c r="K48" t="s">
         <v>106</v>
       </c>
-      <c r="L48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
         <v>32</v>
       </c>
@@ -6508,8 +6764,8 @@
       <c r="E49" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>49</v>
+      <c r="F49" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>92</v>
@@ -6518,32 +6774,711 @@
         <v>92</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="E48:F48"/>
+  <mergeCells count="10">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2956E-40A3-4431-A583-0A8164570B28}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J21:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="E9" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="61"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="61"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="61"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFA688-D9DD-4DB1-87DC-5A8E5D1E2CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C23A61-5618-4262-9246-CC8A00CC3FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="224">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -938,6 +938,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -956,51 +974,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2264,10 +2264,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="54"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -2300,20 +2300,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2354,20 +2354,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2450,20 +2450,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2605,20 +2605,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2705,20 +2705,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2866,10 +2866,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="54"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -2902,20 +2902,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3001,20 +3001,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3260,20 +3260,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3615,20 +3615,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3840,20 +3840,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -4163,10 +4163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="54"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -4199,20 +4199,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4298,20 +4298,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4558,20 +4558,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4913,20 +4913,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5138,20 +5138,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -5461,10 +5461,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="54"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -5497,22 +5497,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5530,13 +5530,13 @@
       <c r="E3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="42" t="s">
         <v>91</v>
       </c>
       <c r="I3" t="s">
@@ -5556,13 +5556,13 @@
       <c r="E4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="42" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -5581,7 +5581,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5590,13 +5590,13 @@
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="42" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -5604,22 +5604,22 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5628,22 +5628,22 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="42" t="s">
         <v>64</v>
       </c>
       <c r="I8" t="s">
@@ -5654,22 +5654,22 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="42" t="s">
         <v>102</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -5683,33 +5683,33 @@
       <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="41" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="42" t="s">
         <v>104</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -5723,19 +5723,19 @@
       <c r="C12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="42" t="s">
         <v>120</v>
       </c>
       <c r="I12" t="s">
@@ -5749,22 +5749,22 @@
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="41" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="42" t="s">
         <v>104</v>
       </c>
       <c r="I13" t="s">
@@ -5775,22 +5775,22 @@
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="42" t="s">
         <v>57</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -5804,22 +5804,22 @@
       <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="42" t="s">
         <v>57</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -5830,22 +5830,22 @@
       <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="41" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="42" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -5853,22 +5853,22 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5880,19 +5880,19 @@
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="42" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
@@ -5909,7 +5909,7 @@
       <c r="C19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="41" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -5918,13 +5918,13 @@
       <c r="F19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="42" t="s">
         <v>108</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -5941,19 +5941,19 @@
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="42" t="s">
         <v>57</v>
       </c>
       <c r="I20" t="s">
@@ -5970,7 +5970,7 @@
       <c r="C21" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -5979,13 +5979,13 @@
       <c r="F21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="42" t="s">
         <v>109</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -5997,7 +5997,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="32"/>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="41" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -6006,13 +6006,13 @@
       <c r="F22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="55" t="s">
+      <c r="H22" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="42" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -6029,19 +6029,19 @@
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="42" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -6058,22 +6058,22 @@
       <c r="C24" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="42" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -6093,7 +6093,7 @@
       <c r="C25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -6102,13 +6102,13 @@
       <c r="F25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="42" t="s">
         <v>110</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -6125,12 +6125,12 @@
       <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -6139,7 +6139,7 @@
       <c r="C27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -6148,13 +6148,13 @@
       <c r="F27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="42" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -6171,12 +6171,12 @@
       <c r="C28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6186,7 +6186,7 @@
       <c r="C29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="41" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -6195,13 +6195,13 @@
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="42" t="s">
         <v>106</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -6209,24 +6209,24 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -6261,11 +6261,11 @@
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
@@ -6382,11 +6382,11 @@
       <c r="B36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
@@ -6468,22 +6468,22 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -6579,11 +6579,11 @@
       <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
       <c r="F43" t="s">
         <v>50</v>
       </c>
@@ -6728,10 +6728,10 @@
       <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="64"/>
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -6782,16 +6782,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6805,7 +6805,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J21:J22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6814,14 +6814,17 @@
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="F1" s="47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="67" t="s">
         <v>139</v>
       </c>
       <c r="B2" t="s">
@@ -6830,13 +6833,13 @@
       <c r="C2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="51" t="s">
         <v>193</v>
       </c>
       <c r="G2" s="9"/>
@@ -6846,20 +6849,20 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
+      <c r="A3" s="67"/>
       <c r="B3" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="51" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="9"/>
@@ -6869,7 +6872,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="67" t="s">
         <v>140</v>
       </c>
       <c r="B4" t="s">
@@ -6878,13 +6881,13 @@
       <c r="C4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="51" t="s">
         <v>212</v>
       </c>
       <c r="G4" s="9"/>
@@ -6894,7 +6897,7 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="67"/>
       <c r="B5" t="s">
         <v>154</v>
       </c>
@@ -6904,18 +6907,18 @@
       <c r="D5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="67" t="s">
         <v>141</v>
       </c>
       <c r="B6" t="s">
@@ -6927,18 +6930,18 @@
       <c r="D6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="67"/>
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -6946,18 +6949,18 @@
       <c r="D7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="51" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="67"/>
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -6967,13 +6970,13 @@
       <c r="E8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="51" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6984,14 +6987,14 @@
       <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="E9" s="63" t="s">
+      <c r="C9" s="45"/>
+      <c r="E9" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7002,13 +7005,13 @@
       <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="51" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7019,13 +7022,13 @@
       <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="51" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7039,13 +7042,13 @@
       <c r="F12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="52" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7068,21 +7071,24 @@
       <c r="F13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7094,13 +7100,13 @@
       <c r="D15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7108,13 +7114,13 @@
       <c r="B16" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="51" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7125,13 +7131,13 @@
       <c r="B17" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="51" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7142,13 +7148,13 @@
       <c r="D18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="51" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7159,13 +7165,13 @@
       <c r="C19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="51" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="9"/>
@@ -7180,13 +7186,13 @@
       <c r="C20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="51" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7197,21 +7203,25 @@
       <c r="C21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="47"/>
+      <c r="E22" s="47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -7223,13 +7233,13 @@
       <c r="C23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="51" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7243,13 +7253,13 @@
       <c r="D24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="51" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7263,13 +7273,13 @@
       <c r="C25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="51" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7283,13 +7293,13 @@
       <c r="D26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="51" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7303,13 +7313,13 @@
       <c r="D27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="51" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7323,13 +7333,13 @@
       <c r="C28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="51" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7341,13 +7351,13 @@
       <c r="D29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7358,13 +7368,13 @@
       <c r="D30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="51" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7378,13 +7388,13 @@
       <c r="E31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="51" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7395,21 +7405,24 @@
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="51" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="61"/>
+      <c r="B33" s="66"/>
+      <c r="D33" s="47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -7421,13 +7434,13 @@
       <c r="C34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="51" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7441,13 +7454,13 @@
       <c r="D35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="51" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7458,13 +7471,13 @@
       <c r="D36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7480,5 +7493,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C23A61-5618-4262-9246-CC8A00CC3FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71EC21D-6C6F-4008-B9AB-F3369837525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="240">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -708,6 +708,54 @@
   </si>
   <si>
     <t>greed3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>Q(s4,A)</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>maxQ(s4,A)</t>
+  </si>
+  <si>
+    <t>Q(s4,a4)</t>
+  </si>
+  <si>
+    <t>rwd4</t>
+  </si>
+  <si>
+    <t>newQ(s4,a4)</t>
+  </si>
+  <si>
+    <t>deb4</t>
+  </si>
+  <si>
+    <t>pjg4</t>
+  </si>
+  <si>
+    <t>rwd_sel4</t>
+  </si>
+  <si>
+    <t>chos_a4</t>
+  </si>
+  <si>
+    <t>max_a(s4)</t>
+  </si>
+  <si>
+    <t>min0_a(s4)</t>
+  </si>
+  <si>
+    <t>min1_a(s4)</t>
+  </si>
+  <si>
+    <t>greed4</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -766,7 +814,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +917,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -900,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -974,6 +1028,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,21 +1049,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5497,10 +5554,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="37" t="s">
         <v>136</v>
       </c>
@@ -5604,10 +5661,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="39" t="s">
         <v>136</v>
       </c>
@@ -5853,10 +5910,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36" t="s">
         <v>136</v>
@@ -6209,10 +6266,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="35" t="s">
         <v>138</v>
       </c>
@@ -6261,11 +6318,11 @@
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
@@ -6382,11 +6439,11 @@
       <c r="B36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
@@ -6468,10 +6525,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="65"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -6579,11 +6636,11 @@
       <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
       <c r="F43" t="s">
         <v>50</v>
       </c>
@@ -6728,10 +6785,10 @@
       <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="64"/>
+      <c r="E48" s="60"/>
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -6782,16 +6839,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6805,7 +6862,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6819,8 +6876,15 @@
         <v>181</v>
       </c>
       <c r="B1" s="66"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="69" t="s">
         <v>136</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="27" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6842,7 +6906,9 @@
       <c r="F2" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -6865,7 +6931,9 @@
       <c r="F3" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -6890,7 +6958,9 @@
       <c r="F4" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -6916,6 +6986,9 @@
       <c r="G5" s="51" t="s">
         <v>211</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
@@ -6938,6 +7011,9 @@
       </c>
       <c r="G6" s="51" t="s">
         <v>212</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6958,6 +7034,9 @@
       <c r="G7" s="51" t="s">
         <v>210</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="67"/>
@@ -6979,6 +7058,9 @@
       <c r="H8" s="51" t="s">
         <v>213</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6997,6 +7079,9 @@
       <c r="G9" s="51" t="s">
         <v>211</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -7014,6 +7099,9 @@
       <c r="H10" s="51" t="s">
         <v>213</v>
       </c>
+      <c r="I10" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -7031,6 +7119,9 @@
       <c r="H11" s="51" t="s">
         <v>214</v>
       </c>
+      <c r="I11" s="4" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -7051,6 +7142,9 @@
       <c r="I12" s="52" t="s">
         <v>215</v>
       </c>
+      <c r="J12" s="68" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7080,15 +7174,28 @@
       <c r="I13" s="51" t="s">
         <v>193</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="66"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="69" t="s">
         <v>136</v>
       </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7109,6 +7216,9 @@
       <c r="G15" s="51" t="s">
         <v>210</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -7123,8 +7233,11 @@
       <c r="F16" s="51" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -7140,8 +7253,11 @@
       <c r="F17" s="51" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>163</v>
       </c>
@@ -7157,8 +7273,11 @@
       <c r="G18" s="51" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -7174,9 +7293,11 @@
       <c r="F19" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7195,8 +7316,11 @@
       <c r="F20" s="51" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -7212,18 +7336,29 @@
       <c r="F21" s="51" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>183</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="47"/>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="69" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -7242,8 +7377,11 @@
       <c r="F23" s="51" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>154</v>
       </c>
@@ -7262,8 +7400,11 @@
       <c r="G24" s="51" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -7282,8 +7423,11 @@
       <c r="F25" s="51" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>170</v>
       </c>
@@ -7302,8 +7446,11 @@
       <c r="G26" s="51" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>171</v>
       </c>
@@ -7322,8 +7469,11 @@
       <c r="G27" s="51" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -7342,8 +7492,11 @@
       <c r="F28" s="51" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -7360,8 +7513,11 @@
       <c r="G29" s="51" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>156</v>
       </c>
@@ -7377,8 +7533,11 @@
       <c r="G30" s="51" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -7397,8 +7556,11 @@
       <c r="H31" s="51" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -7414,17 +7576,29 @@
       <c r="H32" s="51" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="66" t="s">
         <v>184</v>
       </c>
       <c r="B33" s="66"/>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="69" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -7443,8 +7617,11 @@
       <c r="F34" s="51" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>179</v>
       </c>
@@ -7463,8 +7640,11 @@
       <c r="G35" s="51" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -7479,6 +7659,9 @@
       </c>
       <c r="G36" s="51" t="s">
         <v>210</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71EC21D-6C6F-4008-B9AB-F3369837525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F36918B-EEDA-43CE-8B37-F48141C40B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="249">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -756,6 +756,33 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>S_L0</t>
+  </si>
+  <si>
+    <t>S_L1</t>
+  </si>
+  <si>
+    <t>FSM STATE</t>
+  </si>
+  <si>
+    <t>S_L2</t>
+  </si>
+  <si>
+    <t>S_L3</t>
+  </si>
+  <si>
+    <t>S_L4</t>
+  </si>
+  <si>
+    <t>S_L5</t>
+  </si>
+  <si>
+    <t>S_L6</t>
+  </si>
+  <si>
+    <t>S_L7</t>
   </si>
 </sst>
 </file>
@@ -954,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1010,6 +1037,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1028,15 +1058,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,15 +1070,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2321,10 +2351,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -2357,20 +2387,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2411,20 +2441,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2507,20 +2537,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2662,20 +2692,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2762,20 +2792,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2923,10 +2953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -2959,20 +2989,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3058,20 +3088,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3317,20 +3347,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3672,20 +3702,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3897,20 +3927,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -4220,10 +4250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -4256,20 +4286,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4355,20 +4385,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4615,20 +4645,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4970,20 +5000,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5195,20 +5225,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -5518,10 +5548,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
       <c r="C1" t="s">
         <v>39</v>
       </c>
@@ -6318,11 +6348,11 @@
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
@@ -6439,11 +6469,11 @@
       <c r="B36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
@@ -6525,10 +6555,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="61"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -6636,11 +6666,11 @@
       <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
       <c r="F43" t="s">
         <v>50</v>
       </c>
@@ -6785,10 +6815,10 @@
       <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="60"/>
+      <c r="E48" s="67"/>
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -6839,16 +6869,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6859,10 +6889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2956E-40A3-4431-A583-0A8164570B28}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6871,68 +6901,74 @@
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="F1" s="69" t="s">
+      <c r="B2" s="69"/>
+      <c r="F2" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="27" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="27" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D3" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -6940,11 +6976,9 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>140</v>
-      </c>
+      <c r="A4" s="70"/>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>143</v>
@@ -6967,280 +7001,287 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70" t="s">
+        <v>140</v>
+      </c>
       <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" t="s">
         <v>154</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E7" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F7" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="70"/>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E8" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F8" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G8" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="70"/>
+      <c r="B9" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D9" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F9" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G9" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H9" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="E9" s="48" t="s">
+      <c r="C10" s="45"/>
+      <c r="E10" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F10" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G10" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>150</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>185</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G14" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H14" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I14" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+    <row r="15" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="69" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="27" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E16" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F16" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G16" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
       <c r="B17" t="s">
         <v>162</v>
       </c>
@@ -7258,49 +7299,46 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>232</v>
+        <v>162</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="E19" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="F19" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="G19" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
       <c r="B20" t="s">
         <v>164</v>
       </c>
@@ -7321,358 +7359,383 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
       <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D22" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E22" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F22" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+    <row r="23" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="47"/>
-      <c r="E22" s="69" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="47"/>
+      <c r="E23" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="27" t="s">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>140</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D24" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E24" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F24" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C25" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E25" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F25" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G25" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>169</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D26" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E26" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F26" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E28" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F28" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G28" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>141</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D29" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E29" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E31" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F31" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G31" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F33" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G33" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H33" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+    <row r="34" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="D33" s="69" t="s">
+      <c r="B34" s="69"/>
+      <c r="D34" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="27" t="s">
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D35" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E35" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F35" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E36" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F36" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G36" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E37" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F37" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G37" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F36918B-EEDA-43CE-8B37-F48141C40B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981945B1-3A57-472F-9C9D-6D37649D9AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="-8340" yWindow="3180" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="260">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -783,6 +783,39 @@
   </si>
   <si>
     <t>S_L7</t>
+  </si>
+  <si>
+    <t>en(a0)</t>
+  </si>
+  <si>
+    <t>en(a1)</t>
+  </si>
+  <si>
+    <t>en(a2)</t>
+  </si>
+  <si>
+    <t>en(a3)</t>
+  </si>
+  <si>
+    <t>en(a4)</t>
+  </si>
+  <si>
+    <t>goal_sig</t>
+  </si>
+  <si>
+    <t>goal_sig_0</t>
+  </si>
+  <si>
+    <t>goal_sig_1</t>
+  </si>
+  <si>
+    <t>goal_sig_2</t>
+  </si>
+  <si>
+    <t>goal_sig_3</t>
+  </si>
+  <si>
+    <t>goal_sig_4</t>
   </si>
 </sst>
 </file>
@@ -1079,14 +1112,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6889,10 +6922,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2956E-40A3-4431-A583-0A8164570B28}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6902,10 +6935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="69"/>
       <c r="C1" t="s">
         <v>240</v>
       </c>
@@ -6933,10 +6966,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="F2" s="54" t="s">
         <v>136</v>
       </c>
@@ -6949,7 +6982,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>139</v>
       </c>
       <c r="B3" t="s">
@@ -6976,7 +7009,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>152</v>
       </c>
@@ -7001,7 +7034,7 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>140</v>
       </c>
       <c r="B5" t="s">
@@ -7028,7 +7061,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>154</v>
       </c>
@@ -7052,7 +7085,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>141</v>
       </c>
       <c r="B7" t="s">
@@ -7078,7 +7111,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -7100,7 +7133,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -7239,69 +7272,75 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="54" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="27" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E17" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F17" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G17" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
       <c r="B18" t="s">
         <v>162</v>
       </c>
@@ -7319,49 +7358,46 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>232</v>
+        <v>162</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="E20" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="F20" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="G20" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
       <c r="B21" t="s">
         <v>164</v>
       </c>
@@ -7382,92 +7418,92 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
       <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E23" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F23" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="47"/>
-      <c r="E23" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="47"/>
+      <c r="E25" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -7479,7 +7515,7 @@
         <v>157</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>193</v>
@@ -7490,238 +7526,287 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E29" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F29" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G29" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="2" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E32" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F32" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G32" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E33" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F33" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G33" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D34" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F34" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G34" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H34" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="D34" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="D36" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E39" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F39" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="51" t="s">
+      <c r="G39" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7729,13 +7814,13 @@
   <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981945B1-3A57-472F-9C9D-6D37649D9AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4703589C-0D6D-4E0C-BFD5-E4247EC3449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8340" yWindow="3180" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="-9228" yWindow="3336" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="262">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -816,6 +816,12 @@
   </si>
   <si>
     <t>goal_sig_4</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>1 register (internal)</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1097,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,15 +1116,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5617,10 +5623,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="37" t="s">
         <v>136</v>
       </c>
@@ -5724,10 +5730,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="39" t="s">
         <v>136</v>
       </c>
@@ -5973,10 +5979,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36" t="s">
         <v>136</v>
@@ -6329,10 +6335,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="35" t="s">
         <v>138</v>
       </c>
@@ -6381,11 +6387,11 @@
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
@@ -6502,11 +6508,11 @@
       <c r="B36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
@@ -6588,10 +6594,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -6699,11 +6705,11 @@
       <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
       <c r="F43" t="s">
         <v>50</v>
       </c>
@@ -6848,10 +6854,10 @@
       <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="67"/>
+      <c r="E48" s="63"/>
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -6902,16 +6908,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6922,10 +6928,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2956E-40A3-4431-A583-0A8164570B28}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6965,68 +6971,76 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="F2" s="54" t="s">
+      <c r="B3" s="70"/>
+      <c r="F3" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="27" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="27" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D4" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -7034,11 +7048,9 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
-        <v>140</v>
-      </c>
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>143</v>
@@ -7061,220 +7073,221 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="71" t="s">
+        <v>140</v>
+      </c>
       <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="71"/>
+      <c r="B7" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E8" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F8" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G8" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
+      <c r="B10" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D10" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F10" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G10" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H10" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="E10" s="48" t="s">
+      <c r="C11" s="45"/>
+      <c r="E11" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G11" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>150</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>185</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>198</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>161</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>185</v>
@@ -7283,84 +7296,90 @@
         <v>185</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G16" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H16" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I16" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+    <row r="17" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="54" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="27" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E18" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F18" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G18" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
       <c r="B19" t="s">
         <v>162</v>
       </c>
@@ -7378,49 +7397,49 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>232</v>
+        <v>162</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="E21" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="F21" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="G21" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -7441,386 +7460,410 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
       <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D24" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E24" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F24" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D25" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E25" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F25" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+    <row r="26" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="47"/>
-      <c r="E25" s="54" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="47"/>
+      <c r="E26" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="27" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>140</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D27" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E27" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F27" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C28" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E28" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F28" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G28" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>169</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D29" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E29" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E32" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F32" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G32" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E34" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F34" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G34" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F36" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G36" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H36" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
+    <row r="37" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="D36" s="54" t="s">
+      <c r="B37" s="70"/>
+      <c r="D37" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="27" t="s">
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D38" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E38" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F38" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C39" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E39" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F39" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G39" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E40" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F40" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G40" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4703589C-0D6D-4E0C-BFD5-E4247EC3449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DAE0EF-3A60-49B5-85F1-A3844158C7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9228" yWindow="3336" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
   <sheets>
     <sheet name="ideal" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="case 1_comment" sheetId="5" r:id="rId3"/>
     <sheet name="case 1_rev1" sheetId="6" r:id="rId4"/>
     <sheet name="case 2" sheetId="8" r:id="rId5"/>
+    <sheet name="case2_tim" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1097,15 +1098,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,6 +1108,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5623,10 +5624,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="37" t="s">
         <v>136</v>
       </c>
@@ -5730,10 +5731,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="39" t="s">
         <v>136</v>
       </c>
@@ -5979,10 +5980,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36" t="s">
         <v>136</v>
@@ -6335,10 +6336,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="65"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="35" t="s">
         <v>138</v>
       </c>
@@ -6387,11 +6388,11 @@
       <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
@@ -6508,11 +6509,11 @@
       <c r="B36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
@@ -6594,10 +6595,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -6705,11 +6706,11 @@
       <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
       <c r="F43" t="s">
         <v>50</v>
       </c>
@@ -6854,10 +6855,10 @@
       <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="63"/>
+      <c r="E48" s="67"/>
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -6908,16 +6909,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6930,8 +6931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2956E-40A3-4431-A583-0A8164570B28}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7869,4 +7870,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4174379F-34F9-49E8-82CE-4422F2A0F9EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/timing diagram.xlsx
+++ b/timing diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelight\intelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DAE0EF-3A60-49B5-85F1-A3844158C7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0D296-F265-42A2-93AF-847ADED11DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{87E2AC90-7B75-480B-AA1B-B9BFC3F20644}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="256">
   <si>
     <t>POLICY GENERATOR</t>
   </si>
@@ -549,21 +549,9 @@
     <t>MIN</t>
   </si>
   <si>
-    <t>min0_out</t>
-  </si>
-  <si>
-    <t>min1_out</t>
-  </si>
-  <si>
     <t>max_a(s0)</t>
   </si>
   <si>
-    <t>min0_a(s0)</t>
-  </si>
-  <si>
-    <t>min1_a(s0)</t>
-  </si>
-  <si>
     <t>COMP</t>
   </si>
   <si>
@@ -600,12 +588,6 @@
     <t>max_a(s1)</t>
   </si>
   <si>
-    <t>min0_a(s1)</t>
-  </si>
-  <si>
-    <t>min1_a(s1)</t>
-  </si>
-  <si>
     <t>chos_a1</t>
   </si>
   <si>
@@ -651,12 +633,6 @@
     <t>max_a(s2)</t>
   </si>
   <si>
-    <t>min0_a(s2)</t>
-  </si>
-  <si>
-    <t>min1_a(s2)</t>
-  </si>
-  <si>
     <t>rwd_sel2</t>
   </si>
   <si>
@@ -696,12 +672,6 @@
     <t>max_a(s3)</t>
   </si>
   <si>
-    <t>min0_a(s3)</t>
-  </si>
-  <si>
-    <t>min1_a(s3)</t>
-  </si>
-  <si>
     <t>chos_a3</t>
   </si>
   <si>
@@ -747,12 +717,6 @@
     <t>max_a(s4)</t>
   </si>
   <si>
-    <t>min0_a(s4)</t>
-  </si>
-  <si>
-    <t>min1_a(s4)</t>
-  </si>
-  <si>
     <t>greed4</t>
   </si>
   <si>
@@ -823,6 +787,24 @@
   </si>
   <si>
     <t>1 register (internal)</t>
+  </si>
+  <si>
+    <t>min_out</t>
+  </si>
+  <si>
+    <t>min_a(s0)</t>
+  </si>
+  <si>
+    <t>min_a(s1)</t>
+  </si>
+  <si>
+    <t>min_a(s2)</t>
+  </si>
+  <si>
+    <t>min_a(s3)</t>
+  </si>
+  <si>
+    <t>min_a(s4)</t>
   </si>
 </sst>
 </file>
@@ -6929,10 +6911,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2956E-40A3-4431-A583-0A8164570B28}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6943,33 +6925,33 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6978,7 +6960,7 @@
       </c>
       <c r="B2" s="69"/>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -7007,18 +6989,17 @@
     </row>
     <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" s="70"/>
-      <c r="F3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="54"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
       <c r="K3" s="27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7028,22 +7009,21 @@
       <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="E4" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="F4" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -7053,22 +7033,21 @@
       <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="E5" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="F5" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -7080,22 +7059,21 @@
       <c r="B6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="F6" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -7105,23 +7083,23 @@
       <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="F7" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>227</v>
+      <c r="G7" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7131,23 +7109,23 @@
       <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="F8" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>225</v>
+      <c r="G8" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7155,21 +7133,21 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="F9" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>226</v>
+      <c r="G9" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7177,23 +7155,23 @@
       <c r="B10" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>228</v>
+      <c r="G10" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7203,81 +7181,81 @@
       <c r="B11" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="E11" s="48" t="s">
+      <c r="D11" s="45"/>
+      <c r="F11" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>227</v>
+      <c r="G11" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>228</v>
+      <c r="G12" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="G13" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>229</v>
+      <c r="H13" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>230</v>
+      <c r="H14" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7287,71 +7265,70 @@
       <c r="B15" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>185</v>
-      </c>
       <c r="D15" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="H15" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>224</v>
+      <c r="I15" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>185</v>
-      </c>
       <c r="E16" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>253</v>
+        <v>181</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B17" s="70"/>
-      <c r="C17" s="54" t="s">
+      <c r="D17" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -7371,13 +7348,13 @@
         <v>168</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7388,13 +7365,13 @@
         <v>167</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7408,13 +7385,13 @@
         <v>167</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -7422,7 +7399,7 @@
         <v>163</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>165</v>
@@ -7431,13 +7408,13 @@
         <v>166</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -7451,13 +7428,13 @@
         <v>166</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -7474,33 +7451,36 @@
         <v>166</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>224</v>
+      <c r="F24" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7508,39 +7488,41 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B26" s="70"/>
       <c r="C26" s="47"/>
-      <c r="E26" s="54" t="s">
+      <c r="F26" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>
       <c r="J26" s="27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K26" s="23"/>
     </row>
@@ -7551,43 +7533,43 @@
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="E27" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>224</v>
+      <c r="F27" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>235</v>
+      <c r="D28" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7597,267 +7579,243 @@
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="E29" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>224</v>
+      <c r="F29" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>237</v>
+      <c r="H31" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
       <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>224</v>
+        <v>4</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>226</v>
+        <v>156</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>234</v>
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="E36" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H36" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="D37" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>225</v>
+      <c r="G38" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D39" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="F39" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>226</v>
+      <c r="G39" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
